--- a/Adactin/Test Scenarios/TestScenario.xlsx
+++ b/Adactin/Test Scenarios/TestScenario.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\03. NareshIt (Manual Testing)\New folder\Adactin\Test Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3369E6A1-A6EC-4AE5-9480-CA0F19383329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A92C762-4D78-40C6-AC42-7C5D722A7CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,227 +464,227 @@
     <t>Verify Text-boxes functionality in New User Registration Page</t>
   </si>
   <si>
-    <t>Verify Check-boxes functionality in New User Registration Page
+    <t>Verify links functionality in New User Registration Page</t>
+  </si>
+  <si>
+    <t>Verify Email Received functionality in New User Registration Page</t>
+  </si>
+  <si>
+    <t>Verify Mandatory fields functionality in New User Registration Page</t>
+  </si>
+  <si>
+    <t>Verify Labels in New User Registration Page</t>
+  </si>
+  <si>
+    <t>Verify Heading in New User Registration Page</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Verify Logo for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify Header for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify Footer for Whole Application</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>Verify Login functionality/ Login Button functionality</t>
+  </si>
+  <si>
+    <t>Verify Text-boxes functionality in Login Page</t>
+  </si>
+  <si>
+    <t>Verify Lebels in  Login Page</t>
+  </si>
+  <si>
+    <t>Verify Heading in Login Page</t>
+  </si>
+  <si>
+    <t>Verify Links functionality in Login page</t>
+  </si>
+  <si>
+    <t>Verify important Notes in Login page</t>
+  </si>
+  <si>
+    <t>Verify images in Login page</t>
+  </si>
+  <si>
+    <t>Verify Text, Links on Images in Login page</t>
+  </si>
+  <si>
+    <t>Verify Welcome Text in Login page</t>
+  </si>
+  <si>
+    <t>Verify Search Functionality/ Search button functionality</t>
+  </si>
+  <si>
+    <t>Verify Re-set Button functionality in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Dropdown functionality in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Mandatory fields functionality in Search Hotel Page</t>
+  </si>
+  <si>
+    <t>Verify Lebels in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Text-Boxes Functionality in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Links functionality in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Heading in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Hello Text! Message in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Welcome Text in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Date format in Search Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Select Hotel Functionality/ Verify continue Button functionality</t>
+  </si>
+  <si>
+    <t>Verify Cancel Button functionality in Select Hotel</t>
+  </si>
+  <si>
+    <t>Verify Radio Button functionality in Select Hotel</t>
+  </si>
+  <si>
+    <t>Verify Table column names in Select Hotel</t>
+  </si>
+  <si>
+    <t>Verify Table data based on Search conditions in Select Hotel</t>
+  </si>
+  <si>
+    <t>Verify Table data based on Column names in Select Hotel</t>
+  </si>
+  <si>
+    <t>Verify Heading in Select Hotel</t>
+  </si>
+  <si>
+    <t>Book a Hotel</t>
+  </si>
+  <si>
+    <t>Verify Book a Hotel functionality/ Verify Book now Button functionality</t>
+  </si>
+  <si>
+    <t>Verify Cancel button functionality in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Mandatory Fields in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Lebels in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Read Only TextBoxes functionality in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Text-boxes functionality in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Dropdown functionality in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Credit Card Number format in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Price Calculation in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Back button functionality in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Verify Heading in Book a Hotel page</t>
+  </si>
+  <si>
+    <t>Order Generation</t>
+  </si>
+  <si>
+    <t>Verify Order Number Generation  functionality</t>
+  </si>
+  <si>
+    <t>Verify Search Button functionality in Order Generation Page</t>
+  </si>
+  <si>
+    <t>Verify Logout Button functionality in Order Generation Page</t>
+  </si>
+  <si>
+    <t>Verify My Itinerary Button functionality in Order Generation Page</t>
+  </si>
+  <si>
+    <t>Verify Read Only Text-Boxes functionality in Order Generation Page</t>
+  </si>
+  <si>
+    <t>Verify Labels in Order Generation Page</t>
+  </si>
+  <si>
+    <t>Verify Heading in Order Generation Page</t>
+  </si>
+  <si>
+    <t>Verify Data in Read Only Text-Boxes in Order Generation Page</t>
+  </si>
+  <si>
+    <t>Verify Check-Box Functionality in Booked Itinerary Page</t>
+  </si>
+  <si>
+    <t>Verify Search Order Id functionality/ Verify Go Button Functionality in Booked Itinerary</t>
+  </si>
+  <si>
+    <t>Verify Cancel Booking Functionality in Booked Itinerary Page</t>
+  </si>
+  <si>
+    <t>Verify Table Column Names in Booked Itinerary Page</t>
+  </si>
+  <si>
+    <t>Verify Table Data in Booked Itinerary Page</t>
+  </si>
+  <si>
+    <t>Verify Table Data Based On Tbale Column name in Booked Itinerary Page</t>
+  </si>
+  <si>
+    <t>Verify Heading in Booked Itinerary Page</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Verify Password Functionality for Invalid Data in Login Page</t>
+  </si>
+  <si>
+    <t>Verify Spell mistakes for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify Colors for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify Alignments for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify URL Functionality for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify Keyboard Functionality for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify Page Title for Whole Application</t>
+  </si>
+  <si>
+    <t>Verify terms&amp;conditions, Check-boxes functionality in New User Registration Page
 functionality</t>
-  </si>
-  <si>
-    <t>Verify links functionality in New User Registration Page</t>
-  </si>
-  <si>
-    <t>Verify Email Received functionality in New User Registration Page</t>
-  </si>
-  <si>
-    <t>Verify Mandatory fields functionality in New User Registration Page</t>
-  </si>
-  <si>
-    <t>Verify Labels in New User Registration Page</t>
-  </si>
-  <si>
-    <t>Verify Heading in New User Registration Page</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Verify Logo for Whole Application</t>
-  </si>
-  <si>
-    <t>Verify Header for Whole Application</t>
-  </si>
-  <si>
-    <t>Verify Footer for Whole Application</t>
-  </si>
-  <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>Verify Login functionality/ Login Button functionality</t>
-  </si>
-  <si>
-    <t>Verify Text-boxes functionality in Login Page</t>
-  </si>
-  <si>
-    <t>Verify Lebels in  Login Page</t>
-  </si>
-  <si>
-    <t>Verify Heading in Login Page</t>
-  </si>
-  <si>
-    <t>Verify Links functionality in Login page</t>
-  </si>
-  <si>
-    <t>Verify important Notes in Login page</t>
-  </si>
-  <si>
-    <t>Verify images in Login page</t>
-  </si>
-  <si>
-    <t>Verify Text, Links on Images in Login page</t>
-  </si>
-  <si>
-    <t>Verify Welcome Text in Login page</t>
-  </si>
-  <si>
-    <t>Verify Search Functionality/ Search button functionality</t>
-  </si>
-  <si>
-    <t>Verify Re-set Button functionality in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Dropdown functionality in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Mandatory fields functionality in Search Hotel Page</t>
-  </si>
-  <si>
-    <t>Verify Lebels in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Text-Boxes Functionality in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Links functionality in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Heading in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Hello Text! Message in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Welcome Text in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Date format in Search Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Select Hotel Functionality/ Verify continue Button functionality</t>
-  </si>
-  <si>
-    <t>Verify Cancel Button functionality in Select Hotel</t>
-  </si>
-  <si>
-    <t>Verify Radio Button functionality in Select Hotel</t>
-  </si>
-  <si>
-    <t>Verify Table column names in Select Hotel</t>
-  </si>
-  <si>
-    <t>Verify Table data based on Search conditions in Select Hotel</t>
-  </si>
-  <si>
-    <t>Verify Table data based on Column names in Select Hotel</t>
-  </si>
-  <si>
-    <t>Verify Heading in Select Hotel</t>
-  </si>
-  <si>
-    <t>Book a Hotel</t>
-  </si>
-  <si>
-    <t>Verify Book a Hotel functionality/ Verify Book now Button functionality</t>
-  </si>
-  <si>
-    <t>Verify Cancel button functionality in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Mandatory Fields in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Lebels in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Read Only TextBoxes functionality in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Text-boxes functionality in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Dropdown functionality in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Credit Card Number format in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Price Calculation in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Back button functionality in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Verify Heading in Book a Hotel page</t>
-  </si>
-  <si>
-    <t>Order Generation</t>
-  </si>
-  <si>
-    <t>Verify Order Number Generation  functionality</t>
-  </si>
-  <si>
-    <t>Verify Search Button functionality in Order Generation Page</t>
-  </si>
-  <si>
-    <t>Verify Logout Button functionality in Order Generation Page</t>
-  </si>
-  <si>
-    <t>Verify My Itinerary Button functionality in Order Generation Page</t>
-  </si>
-  <si>
-    <t>Verify Read Only Text-Boxes functionality in Order Generation Page</t>
-  </si>
-  <si>
-    <t>Verify Labels in Order Generation Page</t>
-  </si>
-  <si>
-    <t>Verify Heading in Order Generation Page</t>
-  </si>
-  <si>
-    <t>Verify Data in Read Only Text-Boxes in Order Generation Page</t>
-  </si>
-  <si>
-    <t>Verify Check-Box Functionality in Booked Itinerary Page</t>
-  </si>
-  <si>
-    <t>Verify Search Order Id functionality/ Verify Go Button Functionality in Booked Itinerary</t>
-  </si>
-  <si>
-    <t>Verify Cancel Booking Functionality in Booked Itinerary Page</t>
-  </si>
-  <si>
-    <t>Verify Table Column Names in Booked Itinerary Page</t>
-  </si>
-  <si>
-    <t>Verify Table Data in Booked Itinerary Page</t>
-  </si>
-  <si>
-    <t>Verify Table Data Based On Tbale Column name in Booked Itinerary Page</t>
-  </si>
-  <si>
-    <t>Verify Heading in Booked Itinerary Page</t>
-  </si>
-  <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t>Verify Password Functionality for Invalid Data in Login Page</t>
-  </si>
-  <si>
-    <t>Verify Spell mistakes for Whole Application</t>
-  </si>
-  <si>
-    <t>Verify Colors for Whole Application</t>
-  </si>
-  <si>
-    <t>Verify Alignments for Whole Application</t>
-  </si>
-  <si>
-    <t>Verify URL Functionality for Whole Application</t>
-  </si>
-  <si>
-    <t>Verify Keyboard Functionality for Whole Application</t>
-  </si>
-  <si>
-    <t>Verify Page Title for Whole Application</t>
   </si>
 </sst>
 </file>
@@ -1142,7 +1142,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1331,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
@@ -1352,7 +1352,7 @@
         <v>28</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
@@ -1373,7 +1373,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
@@ -1413,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
@@ -1434,7 +1434,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
@@ -1450,10 +1450,10 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
@@ -1467,10 +1467,10 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
@@ -1484,10 +1484,10 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
@@ -1503,10 +1503,10 @@
         <v>3.2</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
@@ -1522,10 +1522,10 @@
         <v>3.2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
@@ -1543,10 +1543,10 @@
         <v>3.2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
@@ -1564,10 +1564,10 @@
         <v>3.2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
@@ -1585,10 +1585,10 @@
         <v>3.2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
@@ -1606,10 +1606,10 @@
         <v>3.2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
@@ -1627,10 +1627,10 @@
         <v>3.2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -1646,10 +1646,10 @@
         <v>3.2</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
@@ -1665,10 +1665,10 @@
         <v>3.2</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
@@ -1689,7 +1689,7 @@
         <v>82</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
@@ -1708,7 +1708,7 @@
         <v>82</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="4" t="s">
@@ -1729,7 +1729,7 @@
         <v>82</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="4" t="s">
@@ -1750,7 +1750,7 @@
         <v>82</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4" t="s">
@@ -1771,7 +1771,7 @@
         <v>82</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4" t="s">
@@ -1792,7 +1792,7 @@
         <v>82</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="4" t="s">
@@ -1813,7 +1813,7 @@
         <v>82</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="4" t="s">
@@ -1834,7 +1834,7 @@
         <v>82</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="4" t="s">
@@ -1855,7 +1855,7 @@
         <v>82</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="4" t="s">
@@ -1876,7 +1876,7 @@
         <v>82</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="4" t="s">
@@ -1897,7 +1897,7 @@
         <v>82</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="4" t="s">
@@ -1916,7 +1916,7 @@
         <v>90</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="4" t="s">
@@ -1935,7 +1935,7 @@
         <v>90</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="4" t="s">
@@ -1956,7 +1956,7 @@
         <v>90</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4" t="s">
@@ -1975,7 +1975,7 @@
         <v>90</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="4" t="s">
@@ -1996,7 +1996,7 @@
         <v>90</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="4" t="s">
@@ -2015,7 +2015,7 @@
         <v>90</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="4" t="s">
@@ -2034,7 +2034,7 @@
         <v>90</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="4" t="s">
@@ -2052,10 +2052,10 @@
         <v>3.5</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="4" t="s">
@@ -2071,10 +2071,10 @@
         <v>3.5</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="4" t="s">
@@ -2092,10 +2092,10 @@
         <v>3.5</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="4" t="s">
@@ -2113,10 +2113,10 @@
         <v>3.5</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="4" t="s">
@@ -2134,10 +2134,10 @@
         <v>3.5</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="4" t="s">
@@ -2155,10 +2155,10 @@
         <v>3.5</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="4" t="s">
@@ -2176,10 +2176,10 @@
         <v>3.5</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="4" t="s">
@@ -2197,10 +2197,10 @@
         <v>3.5</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="4" t="s">
@@ -2216,10 +2216,10 @@
         <v>3.5</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="4" t="s">
@@ -2237,10 +2237,10 @@
         <v>3.5</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="4" t="s">
@@ -2258,10 +2258,10 @@
         <v>3.5</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="4" t="s">
@@ -2279,10 +2279,10 @@
         <v>3.6</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="4" t="s">
@@ -2298,10 +2298,10 @@
         <v>3.6</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="4" t="s">
@@ -2319,10 +2319,10 @@
         <v>3.6</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="4" t="s">
@@ -2340,10 +2340,10 @@
         <v>3.6</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="4" t="s">
@@ -2361,10 +2361,10 @@
         <v>3.6</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="4" t="s">
@@ -2382,10 +2382,10 @@
         <v>3.6</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="4" t="s">
@@ -2403,10 +2403,10 @@
         <v>3.6</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="4" t="s">
@@ -2424,10 +2424,10 @@
         <v>3.6</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="4" t="s">
@@ -2448,7 +2448,7 @@
         <v>130</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="4" t="s">
@@ -2467,7 +2467,7 @@
         <v>130</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="4" t="s">
@@ -2486,7 +2486,7 @@
         <v>130</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="4" t="s">
@@ -2505,7 +2505,7 @@
         <v>130</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="4" t="s">
@@ -2524,7 +2524,7 @@
         <v>130</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="4" t="s">
@@ -2543,7 +2543,7 @@
         <v>130</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="4" t="s">
@@ -2562,7 +2562,7 @@
         <v>130</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="4" t="s">
@@ -2580,10 +2580,10 @@
         <v>4</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="4" t="s">
@@ -2597,10 +2597,10 @@
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="4" t="s">
@@ -2614,10 +2614,10 @@
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="4" t="s">
@@ -2631,10 +2631,10 @@
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="4" t="s">
@@ -2648,10 +2648,10 @@
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="4" t="s">
@@ -2665,10 +2665,10 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="4" t="s">
@@ -2682,10 +2682,10 @@
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="4" t="s">
